--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Calr-Itgav.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H2">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J2">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N2">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P2">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q2">
-        <v>183.442010702019</v>
+        <v>463.1314960986742</v>
       </c>
       <c r="R2">
-        <v>183.442010702019</v>
+        <v>4168.183464888068</v>
       </c>
       <c r="S2">
-        <v>0.0008584853704156653</v>
+        <v>0.001976195923417834</v>
       </c>
       <c r="T2">
-        <v>0.0008584853704156653</v>
+        <v>0.001976195923417835</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H3">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J3">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N3">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O3">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P3">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q3">
-        <v>2786.178414047166</v>
+        <v>3305.502656806141</v>
       </c>
       <c r="R3">
-        <v>2786.178414047166</v>
+        <v>29749.52391125527</v>
       </c>
       <c r="S3">
-        <v>0.01303896200588847</v>
+        <v>0.01410467854217229</v>
       </c>
       <c r="T3">
-        <v>0.01303896200588847</v>
+        <v>0.01410467854217229</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H4">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J4">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N4">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P4">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q4">
-        <v>2478.781227519159</v>
+        <v>3232.465048175762</v>
       </c>
       <c r="R4">
-        <v>2478.781227519159</v>
+        <v>29092.18543358186</v>
       </c>
       <c r="S4">
-        <v>0.01160038211608396</v>
+        <v>0.01379302488517119</v>
       </c>
       <c r="T4">
-        <v>0.01160038211608396</v>
+        <v>0.01379302488517119</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H5">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J5">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N5">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P5">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q5">
-        <v>3096.782638397104</v>
+        <v>3693.688908955624</v>
       </c>
       <c r="R5">
-        <v>3096.782638397104</v>
+        <v>33243.20018060062</v>
       </c>
       <c r="S5">
-        <v>0.01449255042641047</v>
+        <v>0.01576108087171977</v>
       </c>
       <c r="T5">
-        <v>0.01449255042641047</v>
+        <v>0.01576108087171977</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H6">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I6">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J6">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N6">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P6">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q6">
-        <v>1184.542955843684</v>
+        <v>1403.231420068231</v>
       </c>
       <c r="R6">
-        <v>1184.542955843684</v>
+        <v>12629.08278061408</v>
       </c>
       <c r="S6">
-        <v>0.005543510967466406</v>
+        <v>0.005987630371309994</v>
       </c>
       <c r="T6">
-        <v>0.005543510967466406</v>
+        <v>0.005987630371309994</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>39.3061733199236</v>
+        <v>46.30782266666666</v>
       </c>
       <c r="H7">
-        <v>39.3061733199236</v>
+        <v>138.923468</v>
       </c>
       <c r="I7">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="J7">
-        <v>0.04906231193447068</v>
+        <v>0.05564594959396952</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N7">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P7">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q7">
-        <v>753.9565308757537</v>
+        <v>942.889815925815</v>
       </c>
       <c r="R7">
-        <v>753.9565308757537</v>
+        <v>8486.008343332334</v>
       </c>
       <c r="S7">
-        <v>0.003528421048205713</v>
+        <v>0.004023339000178447</v>
       </c>
       <c r="T7">
-        <v>0.003528421048205713</v>
+        <v>0.004023339000178447</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H8">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J8">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N8">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P8">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q8">
-        <v>1563.077795121982</v>
+        <v>3358.546500361674</v>
       </c>
       <c r="R8">
-        <v>1563.077795121982</v>
+        <v>30226.91850325506</v>
       </c>
       <c r="S8">
-        <v>0.00731500605994517</v>
+        <v>0.0143310182065654</v>
       </c>
       <c r="T8">
-        <v>0.00731500605994517</v>
+        <v>0.01433101820656541</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H9">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J9">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N9">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O9">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P9">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q9">
-        <v>23740.54664784249</v>
+        <v>23970.91209185905</v>
       </c>
       <c r="R9">
-        <v>23740.54664784249</v>
+        <v>215738.2088267314</v>
       </c>
       <c r="S9">
-        <v>0.111102750699511</v>
+        <v>0.1022845976911194</v>
       </c>
       <c r="T9">
-        <v>0.111102750699511</v>
+        <v>0.1022845976911194</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H10">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I10">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J10">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N10">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P10">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q10">
-        <v>21121.26813739598</v>
+        <v>23441.25646073332</v>
       </c>
       <c r="R10">
-        <v>21121.26813739598</v>
+        <v>210971.3081465999</v>
       </c>
       <c r="S10">
-        <v>0.09884485909846938</v>
+        <v>0.1000245412970646</v>
       </c>
       <c r="T10">
-        <v>0.09884485909846938</v>
+        <v>0.1000245412970646</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H11">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I11">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J11">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N11">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P11">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q11">
-        <v>26387.15177550385</v>
+        <v>26785.96913208977</v>
       </c>
       <c r="R11">
-        <v>26387.15177550385</v>
+        <v>241073.7221888079</v>
       </c>
       <c r="S11">
-        <v>0.1234885274071981</v>
+        <v>0.1142965301421729</v>
       </c>
       <c r="T11">
-        <v>0.1234885274071981</v>
+        <v>0.1142965301421729</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H12">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I12">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J12">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N12">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P12">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q12">
-        <v>10093.28661718077</v>
+        <v>10175.98244724775</v>
       </c>
       <c r="R12">
-        <v>10093.28661718077</v>
+        <v>91583.84202522978</v>
       </c>
       <c r="S12">
-        <v>0.04723530268285783</v>
+        <v>0.04342122096731227</v>
       </c>
       <c r="T12">
-        <v>0.04723530268285783</v>
+        <v>0.04342122096731227</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>334.921136616785</v>
+        <v>335.81602</v>
       </c>
       <c r="H13">
-        <v>334.921136616785</v>
+        <v>1007.44806</v>
       </c>
       <c r="I13">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="J13">
-        <v>0.4180515143103763</v>
+        <v>0.4035344407418795</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N13">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P13">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q13">
-        <v>6424.333812026412</v>
+        <v>6837.667742704348</v>
       </c>
       <c r="R13">
-        <v>6424.333812026412</v>
+        <v>61539.00968433912</v>
       </c>
       <c r="S13">
-        <v>0.0300650683623949</v>
+        <v>0.02917653243764485</v>
       </c>
       <c r="T13">
-        <v>0.0300650683623949</v>
+        <v>0.02917653243764485</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H14">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I14">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J14">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N14">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P14">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q14">
-        <v>611.4764169667445</v>
+        <v>1494.522306775114</v>
       </c>
       <c r="R14">
-        <v>611.4764169667445</v>
+        <v>13450.70076097602</v>
       </c>
       <c r="S14">
-        <v>0.002861632165452283</v>
+        <v>0.006377171310924479</v>
       </c>
       <c r="T14">
-        <v>0.002861632165452283</v>
+        <v>0.006377171310924482</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H15">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I15">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J15">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N15">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O15">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P15">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q15">
-        <v>9287.307673590041</v>
+        <v>10666.83543942915</v>
       </c>
       <c r="R15">
-        <v>9287.307673590041</v>
+        <v>96001.51895486235</v>
       </c>
       <c r="S15">
-        <v>0.04346342333369575</v>
+        <v>0.04551570534230637</v>
       </c>
       <c r="T15">
-        <v>0.04346342333369575</v>
+        <v>0.04551570534230639</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H16">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I16">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J16">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N16">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P16">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q16">
-        <v>8262.645277640111</v>
+        <v>10431.14355440055</v>
       </c>
       <c r="R16">
-        <v>8262.645277640111</v>
+        <v>93880.29198960496</v>
       </c>
       <c r="S16">
-        <v>0.03866813313178565</v>
+        <v>0.04451000103089641</v>
       </c>
       <c r="T16">
-        <v>0.03866813313178565</v>
+        <v>0.04451000103089642</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H17">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I17">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J17">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N17">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P17">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q17">
-        <v>10322.66024889925</v>
+        <v>11919.50993448708</v>
       </c>
       <c r="R17">
-        <v>10322.66024889925</v>
+        <v>107275.5894103837</v>
       </c>
       <c r="S17">
-        <v>0.04830874222070333</v>
+        <v>0.05086090481881864</v>
       </c>
       <c r="T17">
-        <v>0.04830874222070333</v>
+        <v>0.05086090481881866</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H18">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I18">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J18">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N18">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P18">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q18">
-        <v>3948.49620111867</v>
+        <v>4528.218608593343</v>
       </c>
       <c r="R18">
-        <v>3948.49620111867</v>
+        <v>40753.96747734008</v>
       </c>
       <c r="S18">
-        <v>0.01847846199913519</v>
+        <v>0.0193220440199566</v>
       </c>
       <c r="T18">
-        <v>0.01847846199913519</v>
+        <v>0.01932204401995661</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>131.021230820363</v>
+        <v>149.4350406666667</v>
       </c>
       <c r="H19">
-        <v>131.021230820363</v>
+        <v>448.305122</v>
       </c>
       <c r="I19">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="J19">
-        <v>0.1635418549708727</v>
+        <v>0.1795691151442488</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N19">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P19">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q19">
-        <v>2513.200963532114</v>
+        <v>3042.699264901593</v>
       </c>
       <c r="R19">
-        <v>2513.200963532114</v>
+        <v>27384.29338411434</v>
       </c>
       <c r="S19">
-        <v>0.01176146212010054</v>
+        <v>0.01298328862134623</v>
       </c>
       <c r="T19">
-        <v>0.01176146212010054</v>
+        <v>0.01298328862134623</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H20">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I20">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J20">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N20">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P20">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q20">
-        <v>613.7289369426177</v>
+        <v>1325.601840859196</v>
       </c>
       <c r="R20">
-        <v>613.7289369426177</v>
+        <v>11930.41656773276</v>
       </c>
       <c r="S20">
-        <v>0.002872173673574963</v>
+        <v>0.005656382638728981</v>
       </c>
       <c r="T20">
-        <v>0.002872173673574963</v>
+        <v>0.005656382638728983</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H21">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I21">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J21">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N21">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O21">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P21">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q21">
-        <v>9321.519697923894</v>
+        <v>9461.201502679936</v>
       </c>
       <c r="R21">
-        <v>9321.519697923894</v>
+        <v>85150.81352411942</v>
       </c>
       <c r="S21">
-        <v>0.04362353127336844</v>
+        <v>0.04037122933277503</v>
       </c>
       <c r="T21">
-        <v>0.04362353127336844</v>
+        <v>0.04037122933277504</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H22">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I22">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J22">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N22">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P22">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q22">
-        <v>8293.082712388232</v>
+        <v>9252.149021326442</v>
       </c>
       <c r="R22">
-        <v>8293.082712388232</v>
+        <v>83269.34119193799</v>
       </c>
       <c r="S22">
-        <v>0.03881057647038755</v>
+        <v>0.03947919615232569</v>
       </c>
       <c r="T22">
-        <v>0.03881057647038755</v>
+        <v>0.0394791961523257</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H23">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I23">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J23">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N23">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P23">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q23">
-        <v>10360.68624265734</v>
+        <v>10572.29071768757</v>
       </c>
       <c r="R23">
-        <v>10360.68624265734</v>
+        <v>95150.61645918812</v>
       </c>
       <c r="S23">
-        <v>0.04848669905410213</v>
+        <v>0.0451122801914361</v>
       </c>
       <c r="T23">
-        <v>0.04848669905410213</v>
+        <v>0.04511228019143611</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H24">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I24">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J24">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N24">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P24">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q24">
-        <v>3963.041433479059</v>
+        <v>4016.410391569644</v>
       </c>
       <c r="R24">
-        <v>3963.041433479059</v>
+        <v>36147.69352412679</v>
       </c>
       <c r="S24">
-        <v>0.01854653184389378</v>
+        <v>0.01713814307481663</v>
       </c>
       <c r="T24">
-        <v>0.01854653184389378</v>
+        <v>0.01713814307481663</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>131.503878934824</v>
+        <v>132.544937</v>
       </c>
       <c r="H25">
-        <v>131.503878934824</v>
+        <v>397.634811</v>
       </c>
       <c r="I25">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="J25">
-        <v>0.1641443006008132</v>
+        <v>0.1592730657264732</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N25">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P25">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q25">
-        <v>2522.458941790412</v>
+        <v>2698.793941348241</v>
       </c>
       <c r="R25">
-        <v>2522.458941790412</v>
+        <v>24289.14547213417</v>
       </c>
       <c r="S25">
-        <v>0.01180478828548632</v>
+        <v>0.01151583433639078</v>
       </c>
       <c r="T25">
-        <v>0.01180478828548632</v>
+        <v>0.01151583433639078</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H26">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I26">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J26">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N26">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P26">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q26">
-        <v>497.8390669733886</v>
+        <v>1083.611550444597</v>
       </c>
       <c r="R26">
-        <v>497.8390669733886</v>
+        <v>9752.503954001373</v>
       </c>
       <c r="S26">
-        <v>0.002329823763828461</v>
+        <v>0.004623802843460341</v>
       </c>
       <c r="T26">
-        <v>0.002329823763828461</v>
+        <v>0.004623802843460342</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H27">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I27">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J27">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N27">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O27">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P27">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q27">
-        <v>7561.345717714434</v>
+        <v>7734.047217935889</v>
       </c>
       <c r="R27">
-        <v>7561.345717714434</v>
+        <v>69606.42496142302</v>
       </c>
       <c r="S27">
-        <v>0.03538614003668646</v>
+        <v>0.03300141042523604</v>
       </c>
       <c r="T27">
-        <v>0.03538614003668646</v>
+        <v>0.03300141042523604</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H28">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I28">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J28">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N28">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P28">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q28">
-        <v>6727.107541051975</v>
+        <v>7563.15753110736</v>
       </c>
       <c r="R28">
-        <v>6727.107541051975</v>
+        <v>68068.41777996624</v>
       </c>
       <c r="S28">
-        <v>0.03148201105681872</v>
+        <v>0.03227221902860353</v>
       </c>
       <c r="T28">
-        <v>0.03148201105681872</v>
+        <v>0.03227221902860354</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H29">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I29">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J29">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N29">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P29">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q29">
-        <v>8404.2874007924</v>
+        <v>8642.305693328712</v>
       </c>
       <c r="R29">
-        <v>8404.2874007924</v>
+        <v>77780.75123995841</v>
       </c>
       <c r="S29">
-        <v>0.03933100032395994</v>
+        <v>0.0368769764612341</v>
       </c>
       <c r="T29">
-        <v>0.03933100032395994</v>
+        <v>0.03687697646123411</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H30">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I30">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J30">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N30">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P30">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q30">
-        <v>3214.703969228947</v>
+        <v>3283.209601466495</v>
       </c>
       <c r="R30">
-        <v>3214.703969228947</v>
+        <v>29548.88641319846</v>
       </c>
       <c r="S30">
-        <v>0.01504440731563486</v>
+        <v>0.01400955340934532</v>
       </c>
       <c r="T30">
-        <v>0.01504440731563486</v>
+        <v>0.01400955340934532</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>106.672122579769</v>
+        <v>108.3486913333333</v>
       </c>
       <c r="H31">
-        <v>106.672122579769</v>
+        <v>325.046074</v>
       </c>
       <c r="I31">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="J31">
-        <v>0.1331490834817011</v>
+        <v>0.1301975664005284</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N31">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P31">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q31">
-        <v>2046.145342788412</v>
+        <v>2206.125698512427</v>
       </c>
       <c r="R31">
-        <v>2046.145342788412</v>
+        <v>19855.13128661185</v>
       </c>
       <c r="S31">
-        <v>0.009575700984772648</v>
+        <v>0.009413604232649081</v>
       </c>
       <c r="T31">
-        <v>0.009575700984772648</v>
+        <v>0.009413604232649081</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H32">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I32">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J32">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>4.66700253949767</v>
+        <v>10.00115033333333</v>
       </c>
       <c r="N32">
-        <v>4.66700253949767</v>
+        <v>30.003451</v>
       </c>
       <c r="O32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070085</v>
       </c>
       <c r="P32">
-        <v>0.0174978580618518</v>
+        <v>0.03551374247070086</v>
       </c>
       <c r="Q32">
-        <v>269.3955464696631</v>
+        <v>597.4112276337838</v>
       </c>
       <c r="R32">
-        <v>269.3955464696631</v>
+        <v>5376.701048704054</v>
       </c>
       <c r="S32">
-        <v>0.001260737028635251</v>
+        <v>0.002549171547603815</v>
       </c>
       <c r="T32">
-        <v>0.001260737028635251</v>
+        <v>0.002549171547603815</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H33">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I33">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J33">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>70.8839904452083</v>
+        <v>71.38108566666666</v>
       </c>
       <c r="N33">
-        <v>70.8839904452083</v>
+        <v>214.143257</v>
       </c>
       <c r="O33">
-        <v>0.2657633016418746</v>
+        <v>0.253471791659403</v>
       </c>
       <c r="P33">
-        <v>0.2657633016418746</v>
+        <v>0.2534717916594031</v>
       </c>
       <c r="Q33">
-        <v>4091.66937029193</v>
+        <v>4263.895711658864</v>
       </c>
       <c r="R33">
-        <v>4091.66937029193</v>
+        <v>38375.06140492978</v>
       </c>
       <c r="S33">
-        <v>0.0191484942927244</v>
+        <v>0.0181941703257939</v>
       </c>
       <c r="T33">
-        <v>0.0191484942927244</v>
+        <v>0.0181941703257939</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H34">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I34">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J34">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>63.0634075554414</v>
+        <v>69.803866</v>
       </c>
       <c r="N34">
-        <v>63.0634075554414</v>
+        <v>209.411598</v>
       </c>
       <c r="O34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="P34">
-        <v>0.2364418156971043</v>
+        <v>0.2478711386150191</v>
       </c>
       <c r="Q34">
-        <v>3640.238246466825</v>
+        <v>4169.681675682321</v>
       </c>
       <c r="R34">
-        <v>3640.238246466825</v>
+        <v>37527.13508114089</v>
       </c>
       <c r="S34">
-        <v>0.01703585382355902</v>
+        <v>0.01779215622095764</v>
       </c>
       <c r="T34">
-        <v>0.01703585382355902</v>
+        <v>0.01779215622095765</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H35">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I35">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J35">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>78.7861645342972</v>
+        <v>79.76382166666667</v>
       </c>
       <c r="N35">
-        <v>78.7861645342972</v>
+        <v>239.291465</v>
       </c>
       <c r="O35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="P35">
-        <v>0.2953906951178171</v>
+        <v>0.2832386002345773</v>
       </c>
       <c r="Q35">
-        <v>4547.810220658308</v>
+        <v>4764.632170743846</v>
       </c>
       <c r="R35">
-        <v>4547.810220658308</v>
+        <v>42881.68953669461</v>
       </c>
       <c r="S35">
-        <v>0.02128317568544306</v>
+        <v>0.02033082774919572</v>
       </c>
       <c r="T35">
-        <v>0.02128317568544306</v>
+        <v>0.02033082774919572</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H36">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I36">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J36">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>30.1363082639047</v>
+        <v>30.30225433333333</v>
       </c>
       <c r="N36">
-        <v>30.1363082639047</v>
+        <v>90.906763</v>
       </c>
       <c r="O36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="P36">
-        <v>0.1129891916807857</v>
+        <v>0.1076022678200263</v>
       </c>
       <c r="Q36">
-        <v>1739.572062501314</v>
+        <v>1810.082476313922</v>
       </c>
       <c r="R36">
-        <v>1739.572062501314</v>
+        <v>16290.7422868253</v>
       </c>
       <c r="S36">
-        <v>0.008140976871797594</v>
+        <v>0.00772367597728552</v>
       </c>
       <c r="T36">
-        <v>0.008140976871797594</v>
+        <v>0.00772367597728552</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>57.7234625843292</v>
+        <v>59.73425133333333</v>
       </c>
       <c r="H37">
-        <v>57.7234625843292</v>
+        <v>179.202754</v>
       </c>
       <c r="I37">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="J37">
-        <v>0.07205093470176584</v>
+        <v>0.07177986239290053</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>19.1816314638186</v>
+        <v>20.36135066666667</v>
       </c>
       <c r="N37">
-        <v>19.1816314638186</v>
+        <v>61.084052</v>
       </c>
       <c r="O37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="P37">
-        <v>0.07191713780056665</v>
+        <v>0.07230245920027331</v>
       </c>
       <c r="Q37">
-        <v>1107.230186108125</v>
+        <v>1216.270038208801</v>
       </c>
       <c r="R37">
-        <v>1107.230186108125</v>
+        <v>10946.43034387921</v>
       </c>
       <c r="S37">
-        <v>0.005181696999606523</v>
+        <v>0.005189860572063923</v>
       </c>
       <c r="T37">
-        <v>0.005181696999606523</v>
+        <v>0.005189860572063923</v>
       </c>
     </row>
   </sheetData>
